--- a/data/trans_dic/P37A$otros-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37A$otros-Clase-trans_dic.xlsx
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003987044405685413</v>
+        <v>0.003930805243644331</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006795484087825378</v>
+        <v>0.007004974798860242</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006762135652618929</v>
+        <v>0.007167813557780253</v>
       </c>
     </row>
     <row r="6">
@@ -746,30 +746,30 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01520995333169827</v>
+        <v>0.01749236258891534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02141409749911985</v>
+        <v>0.02191478399665407</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.01769722955967275</v>
+        <v>0.01646217394429582</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01292759200068617</v>
+        <v>0.01225890010134924</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02617828105799998</v>
+        <v>0.02665045419963693</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.006065825975153091</v>
+        <v>0.006246628054471366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01051857667717542</v>
+        <v>0.009758777550263765</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01960415209191992</v>
+        <v>0.01963636729502212</v>
       </c>
     </row>
     <row r="7">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005471390125303082</v>
+        <v>0.005197063880408052</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -845,10 +845,10 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.0001758898380331713</v>
+        <v>0.001325399739794864</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001033826004422885</v>
+        <v>0.001039406132381186</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.004507956120629073</v>
+        <v>0.004522874120554629</v>
       </c>
     </row>
     <row r="9">
@@ -868,36 +868,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01299144782228768</v>
+        <v>0.01126360924944441</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01577152739611371</v>
+        <v>0.01587796419565648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02880988253676763</v>
+        <v>0.03108547645605434</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01741961608785857</v>
+        <v>0.01749357943677952</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01873609009708849</v>
+        <v>0.02490443264263413</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.0117452486312755</v>
+        <v>0.01335040226938649</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01021423122989255</v>
+        <v>0.01062479961730331</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.008337101911609322</v>
+        <v>0.007599356470918792</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008677671207802535</v>
+        <v>0.009507487316150367</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01787089715844777</v>
+        <v>0.01813324831273431</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.003888338310870882</v>
+        <v>0.004064714318011305</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003311994193782961</v>
+        <v>0.00315689836554707</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.005613661720748834</v>
+        <v>0.005392226775033546</v>
       </c>
     </row>
     <row r="12">
@@ -994,34 +994,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01143566293381035</v>
+        <v>0.009764567442369539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.007763353225156825</v>
+        <v>0.00825288603212602</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.02666637445262142</v>
+        <v>0.02762778223552617</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.04818870572814435</v>
+        <v>0.03897845650155315</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03524367669425973</v>
+        <v>0.02980273721673508</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.008611264639297154</v>
+        <v>0.008303961904248225</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.006969258216481129</v>
+        <v>0.005809093666272102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01217247523583675</v>
+        <v>0.01271538887788578</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02435842225720155</v>
+        <v>0.0234133633318596</v>
       </c>
     </row>
     <row r="13">
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0006860934371270823</v>
+        <v>0.000691990291877642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002883050534257594</v>
+        <v>0.002705705697037575</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00500009492514588</v>
+        <v>0.005089981602687033</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.001025462960059257</v>
+        <v>0.0009327576917776112</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.004671222655746772</v>
+        <v>0.004670711928765652</v>
       </c>
     </row>
     <row r="15">
@@ -1122,38 +1122,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.004203227841151233</v>
+        <v>0.004571744927557039</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.003393008758312724</v>
+        <v>0.00457712086138997</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008599369403019882</v>
+        <v>0.009955346451824797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01529764545478817</v>
+        <v>0.01475331587252393</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.006747346962577326</v>
+        <v>0.006206879547697953</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.009493073068488511</v>
+        <v>0.008608849575752264</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01914057959649717</v>
+        <v>0.01944811169615444</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.002146149180259837</v>
+        <v>0.002803204753604266</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.003156441887537748</v>
+        <v>0.003122241549037903</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.007094653897121829</v>
+        <v>0.006602447641907697</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01347515591369448</v>
+        <v>0.01375472349479002</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0.001707233830151878</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.006966495948857212</v>
+        <v>0.00696649594885721</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.00232085120525869</v>
@@ -1201,7 +1201,7 @@
         <v>0.002909347691143662</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.008778577223307139</v>
+        <v>0.008778577223307138</v>
       </c>
     </row>
     <row r="17">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001758023221642111</v>
+        <v>0.001580702431253303</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001248170456668111</v>
+        <v>0.001251002397233519</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.005367649358103899</v>
+        <v>0.005219498305492158</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0007377442030850813</v>
+        <v>0.0007789140477776732</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.005106814768125404</v>
+        <v>0.005060578733217718</v>
       </c>
     </row>
     <row r="18">
@@ -1254,34 +1254,34 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.008632548976946377</v>
+        <v>0.008605554978130587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0181206345926854</v>
+        <v>0.01670860239951807</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01164420703399898</v>
+        <v>0.01368229567991419</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.009203507347620075</v>
+        <v>0.00836311409327452</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.009322492220562653</v>
+        <v>0.01051910518913808</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01666587026637334</v>
+        <v>0.01739836033200906</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.00721061428026609</v>
+        <v>0.007166313964139057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.004950761193347305</v>
+        <v>0.004633180217683874</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.007911464407519143</v>
+        <v>0.007305728890919241</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0143838246163084</v>
+        <v>0.01435839970250984</v>
       </c>
     </row>
     <row r="19">
@@ -1329,7 +1329,7 @@
         <v>0.006721300346317899</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.008163357908083908</v>
+        <v>0.008163357908083906</v>
       </c>
     </row>
     <row r="20">
@@ -1342,7 +1342,7 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.003776187335080937</v>
+        <v>0.005497364634371059</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0009441627356814291</v>
+        <v>0.0009454782797788132</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005010550100282399</v>
+        <v>0.004450148378220184</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.003142271427609507</v>
+        <v>0.003095994558554897</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0034077778970876</v>
+        <v>0.003774294511972958</v>
       </c>
     </row>
     <row r="21">
@@ -1380,32 +1380,32 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.04100810062266993</v>
+        <v>0.04091505943270812</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.003971592345481711</v>
+        <v>0.004563105710839233</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.005244587025182425</v>
+        <v>0.004581637890483536</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01031983118730891</v>
+        <v>0.0100746531116297</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02387267174864747</v>
+        <v>0.02356798589665188</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.003207641437741202</v>
+        <v>0.00320422545718442</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.003881445390657247</v>
+        <v>0.004110761526809233</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01352534438980062</v>
+        <v>0.01272815787981038</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01804060720162695</v>
+        <v>0.01771829163146375</v>
       </c>
     </row>
     <row r="22">
@@ -1464,40 +1464,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0002693992642794002</v>
+        <v>0.0002686167246038285</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001975748267768334</v>
+        <v>0.001871374489872786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.005533387303038363</v>
+        <v>0.005926555644586863</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0002935984054435661</v>
+        <v>0.0002922204009352976</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0005747795017383398</v>
+        <v>0.0005505804382630325</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.001642639565959418</v>
+        <v>0.001744108273690792</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.007322996980517187</v>
+        <v>0.007409106764396688</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.000555788636030961</v>
+        <v>0.0004247604830684147</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0004260781274366314</v>
+        <v>0.0004320258048491872</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.002231672329668661</v>
+        <v>0.00214161888070234</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.007205641563741078</v>
+        <v>0.00733875926959866</v>
       </c>
     </row>
     <row r="24">
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.002773758035422447</v>
+        <v>0.002675473464684649</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.00197105503927745</v>
+        <v>0.002166519210911574</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.00651585696272847</v>
+        <v>0.006522557210324634</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01224138419928803</v>
+        <v>0.01265213663969951</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.003231050254567633</v>
+        <v>0.003203528212831324</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.003262037358687239</v>
+        <v>0.003318893752442205</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.005830778283153919</v>
+        <v>0.005795602451201141</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01393252342332037</v>
+        <v>0.01397646286692321</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.002214038561482919</v>
+        <v>0.002213879742950188</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.002164731279674883</v>
+        <v>0.002084958070852141</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.005229723002941341</v>
+        <v>0.005265275555025583</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01197604935465836</v>
+        <v>0.01187840622573818</v>
       </c>
     </row>
     <row r="25">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2195</v>
+        <v>2164</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3319</v>
+        <v>3421</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7026</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="7">
@@ -1852,30 +1852,30 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6526</v>
+        <v>7506</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11791</v>
+        <v>12067</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5565</v>
+        <v>5177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>4487</v>
+        <v>4255</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12786</v>
+        <v>13016</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>4559</v>
+        <v>4695</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8164</v>
+        <v>7574</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20369</v>
+        <v>20403</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2644</v>
+        <v>2511</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1995,10 +1995,10 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>74</v>
+        <v>561</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4086</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="11">
@@ -2018,36 +2018,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4767</v>
+        <v>4133</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5949</v>
+        <v>5990</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13921</v>
+        <v>15021</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6478</v>
+        <v>6505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6333</v>
+        <v>8418</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4970</v>
+        <v>5649</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7546</v>
+        <v>7850</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6310</v>
+        <v>5751</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6504</v>
+        <v>7126</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16197</v>
+        <v>16435</v>
       </c>
     </row>
     <row r="12">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>1834</v>
+        <v>1917</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3700</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="15">
@@ -2188,34 +2188,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6203</v>
+        <v>5296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4886</v>
+        <v>5194</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>12576</v>
+        <v>13030</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>8005</v>
+        <v>6475</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6608</v>
+        <v>5588</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6115</v>
+        <v>5897</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>6199</v>
+        <v>5167</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8375</v>
+        <v>8749</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16055</v>
+        <v>15432</v>
       </c>
     </row>
     <row r="16">
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3263</v>
+        <v>3062</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4306</v>
+        <v>4384</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2026</v>
+        <v>1843</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9310</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="19">
@@ -2360,38 +2360,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5205</v>
+        <v>5661</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3933</v>
+        <v>5305</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9886</v>
+        <v>11445</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17315</v>
+        <v>16698</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5173</v>
+        <v>4759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7840</v>
+        <v>7110</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16484</v>
+        <v>16749</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4191</v>
+        <v>5474</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6078</v>
+        <v>6012</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14016</v>
+        <v>13043</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>26857</v>
+        <v>27414</v>
       </c>
     </row>
     <row r="20">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>998</v>
+        <v>898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4460</v>
+        <v>4337</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1003</v>
+        <v>1059</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>7143</v>
+        <v>7079</v>
       </c>
     </row>
     <row r="23">
@@ -2536,34 +2536,34 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>5358</v>
+        <v>5342</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10292</v>
+        <v>9490</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6623</v>
+        <v>7782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7009</v>
+        <v>6369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6882</v>
+        <v>7766</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13847</v>
+        <v>14455</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6629</v>
+        <v>6588</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6298</v>
+        <v>5894</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>10751</v>
+        <v>9928</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>20120</v>
+        <v>20085</v>
       </c>
     </row>
     <row r="24">
@@ -2668,7 +2668,7 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>1084</v>
+        <v>1579</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4230</v>
+        <v>3757</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4302</v>
+        <v>4239</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3686</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="27">
@@ -2706,32 +2706,32 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>11775</v>
+        <v>11749</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>4960</v>
+        <v>5698</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5818</v>
+        <v>5083</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11166</v>
+        <v>10901</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20155</v>
+        <v>19898</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4962</v>
+        <v>4957</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5342</v>
+        <v>5657</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>18518</v>
+        <v>17427</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>19511</v>
+        <v>19162</v>
       </c>
     </row>
     <row r="28">
@@ -2834,40 +2834,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6689</v>
+        <v>6336</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19049</v>
+        <v>20402</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2041</v>
+        <v>1955</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5801</v>
+        <v>6159</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26622</v>
+        <v>26935</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3695</v>
+        <v>2824</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2971</v>
+        <v>3012</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>15437</v>
+        <v>14814</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>51001</v>
+        <v>51943</v>
       </c>
     </row>
     <row r="31">
@@ -2878,40 +2878,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9071</v>
+        <v>8749</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6745</v>
+        <v>7414</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>22061</v>
+        <v>22084</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>42141</v>
+        <v>43555</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10915</v>
+        <v>10822</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11581</v>
+        <v>11782</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20592</v>
+        <v>20468</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50650</v>
+        <v>50810</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>14720</v>
+        <v>14719</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>15093</v>
+        <v>14536</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>36176</v>
+        <v>36422</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>84765</v>
+        <v>84074</v>
       </c>
     </row>
     <row r="32">
